--- a/data_salarios.xlsx
+++ b/data_salarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/GDP_visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC55EE2-B301-41A1-A20A-BEBDAA92E9D7}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4F3D4E-03AF-4BE1-96E8-F9BE3D97B572}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t xml:space="preserve">    Gasto en consumo final</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Otras industrias</t>
   </si>
   <si>
-    <t>Construccion</t>
-  </si>
-  <si>
     <t>Remuneración de asalariados</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Sueldos y salarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EBE, Renta mixta bruta y otros impuestos netos sobre la producción</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,16 +1195,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971382D-662F-4FE0-8A96-464BD1F3FEF8}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,143 +1599,274 @@
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>51</v>
+      <c r="B36" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>2424</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>51</v>
+      <c r="B37" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>47687</v>
+        <v>77490</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>51</v>
+      <c r="B38" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>4833</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C39">
-        <v>19643</v>
+        <v>41027</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>51</v>
+      <c r="B40" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>41733</v>
+        <v>148091</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>51</v>
+      <c r="B41" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>8969</v>
+        <v>30748</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>51</v>
+      <c r="B42" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>12217</v>
+        <v>19734</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
+      <c r="B43" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>699</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>51</v>
+      <c r="B44" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>12814</v>
+        <v>75046</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>51</v>
+      <c r="B45" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>56834</v>
+        <v>191859</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>33717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C46">
-        <v>11965</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="3">
+        <v>145772</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C47">
-        <v>46692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" s="3">
+        <v>497275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="3">
-        <v>173126</v>
+      <c r="C49">
+        <v>24204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="5">
+        <f>C27-C37</f>
+        <v>76062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="5">
+        <f>C28-C38</f>
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="5">
+        <f>C24-C39</f>
+        <v>25241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="5">
+        <f>C29-C40</f>
+        <v>146966</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" ref="C54:C59" si="0">C30-C41</f>
+        <v>16067</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="0"/>
+        <v>32928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="0"/>
+        <v>133833</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="0"/>
+        <v>34445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="0"/>
+        <v>25996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="0"/>
+        <v>18743</v>
       </c>
     </row>
   </sheetData>
@@ -1745,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88CA3A-9099-4851-A300-D1F34FFF121D}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,17 +2070,22 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data_salarios.xlsx
+++ b/data_salarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/GDP_visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/03_GDP_visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD4F3D4E-03AF-4BE1-96E8-F9BE3D97B572}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899416A5-EFB5-4C96-8742-8DDD9E94E14C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
@@ -180,28 +180,28 @@
     <t>PIB</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Industria manufacturera</t>
+  </si>
+  <si>
+    <t>Otras industrias</t>
+  </si>
+  <si>
+    <t>Remuneración de asalariados</t>
+  </si>
+  <si>
+    <t>Cotizaciones sociales a cargo de los empleadores</t>
+  </si>
+  <si>
+    <t>Sueldos y salarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EBE, Renta mixta bruta y otros impuestos netos sobre la producción</t>
+  </si>
+  <si>
     <t>Demanda total</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Industria manufacturera</t>
-  </si>
-  <si>
-    <t>Otras industrias</t>
-  </si>
-  <si>
-    <t>Remuneración de asalariados</t>
-  </si>
-  <si>
-    <t>Cotizaciones sociales a cargo de los empleadores</t>
-  </si>
-  <si>
-    <t>Sueldos y salarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  EBE, Renta mixta bruta y otros impuestos netos sobre la producción</t>
   </si>
 </sst>
 </file>
@@ -328,6 +328,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971382D-662F-4FE0-8A96-464BD1F3FEF8}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,8 +1227,8 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="3">
         <v>1040844</v>
@@ -1268,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>289220</v>
@@ -1366,8 +1370,8 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>46</v>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C15" s="3">
         <v>550319</v>
@@ -1396,8 +1400,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>46</v>
+      <c r="A18" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1429,8 +1433,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>46</v>
+      <c r="A21" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>45</v>
@@ -1500,7 +1504,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3">
         <v>153552</v>
@@ -1511,7 +1515,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5">
         <f>C23-C27</f>
@@ -1600,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>7279</v>
@@ -1608,10 +1612,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>77490</v>
@@ -1619,10 +1623,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C38">
         <v>12054</v>
@@ -1633,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>41027</v>
@@ -1644,7 +1648,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>148091</v>
@@ -1655,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>30748</v>
@@ -1666,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <v>19734</v>
@@ -1677,7 +1681,7 @@
         <v>31</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>6002</v>
@@ -1688,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>75046</v>
@@ -1699,7 +1703,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>191859</v>
@@ -1710,7 +1714,7 @@
         <v>34</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>33717</v>
@@ -1718,10 +1722,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="C47" s="3">
         <v>145772</v>
@@ -1729,10 +1733,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3">
         <v>497275</v>
@@ -1743,7 +1747,7 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>24204</v>
@@ -1751,10 +1755,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5">
         <f>C27-C37</f>
@@ -1763,10 +1767,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5">
         <f>C28-C38</f>
@@ -1778,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="5">
         <f>C24-C39</f>
@@ -1790,7 +1794,7 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="5">
         <f>C29-C40</f>
@@ -1802,7 +1806,7 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="5">
         <f t="shared" ref="C54:C59" si="0">C30-C41</f>
@@ -1814,7 +1818,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
@@ -1826,7 +1830,7 @@
         <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
@@ -1838,7 +1842,7 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
@@ -1850,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
@@ -1862,7 +1866,7 @@
         <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="5">
         <f t="shared" si="0"/>
@@ -1878,9 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88CA3A-9099-4851-A300-D1F34FFF121D}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1889,7 +1891,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1983,110 +1985,110 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
+      <c r="A20" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
+      <c r="A34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>19</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
